--- a/backend/Random data/Instructors.xlsx
+++ b/backend/Random data/Instructors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mihir\Projects\Online Examination System\backend\Random data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mihir\Projects\online-examination-system\backend\Random data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395EFA3C-E6EB-4CEF-95DA-A58551092FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFBE46C-376C-4030-872D-5DE6AAD72C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Phone_Number</t>
   </si>
   <si>
-    <t>lofo@iiti.ac.in</t>
-  </si>
-  <si>
     <t>Rahul</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Ranveer</t>
+  </si>
+  <si>
+    <t>mihirk2811@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -381,12 +381,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,12 +403,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>34431</v>
@@ -414,12 +417,12 @@
         <v>7181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>34519</v>
